--- a/students_with_codes.xlsx
+++ b/students_with_codes.xlsx
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>6156</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="2">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5154</v>
+        <v>6467</v>
       </c>
     </row>
   </sheetData>

--- a/students_with_codes.xlsx
+++ b/students_with_codes.xlsx
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>5114</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="2">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6467</v>
+        <v>2297</v>
       </c>
     </row>
   </sheetData>

--- a/students_with_codes.xlsx
+++ b/students_with_codes.xlsx
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>5677</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="2">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2297</v>
+        <v>3028</v>
       </c>
     </row>
   </sheetData>

--- a/students_with_codes.xlsx
+++ b/students_with_codes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,37 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>5677</v>
+        <v>9126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Цыкура</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Фёдор</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Самохин</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>2297</v>
+      <c r="C3" t="n">
+        <v>5947</v>
       </c>
     </row>
   </sheetData>

--- a/students_with_codes.xlsx
+++ b/students_with_codes.xlsx
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>9126</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="2">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2178</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5947</v>
+        <v>7752</v>
       </c>
     </row>
   </sheetData>

--- a/students_with_codes.xlsx
+++ b/students_with_codes.xlsx
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>3128</v>
+        <v>6396</v>
       </c>
     </row>
     <row r="2">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1412</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7752</v>
+        <v>5009</v>
       </c>
     </row>
   </sheetData>
